--- a/src/main/resources/config/relation.xlsx
+++ b/src/main/resources/config/relation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="194">
   <si>
     <t>csv key</t>
     <phoneticPr fontId="23" type="noConversion"/>
@@ -469,10 +469,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>p2psy1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>see#0</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -806,882 +802,6 @@
   </si>
   <si>
     <t>property</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pagen</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2bol</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2con1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pkgs1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2wgt1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psn1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2asi1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2con2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pkgs2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2wgt2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psy2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psn2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2asi2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2con3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pkgs3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2wgt3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psy3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psn3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2asi3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2con4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pkgs4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2wgt4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psy4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psn4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2asi4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2con5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pkgs5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2wgt5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psy5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psn5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2asi5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2con6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pkgs6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2wgt6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psy6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psn6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2asi6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2con7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pkgs7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2wgt7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psy7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psn7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2asi7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2con8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pkgs8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2wgt8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psy8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psn8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2asi8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2con9</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pkgs9</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2wgt9</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psy9</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psn9</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2asi9</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2con10</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pkgs10</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2wgt10</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psy10</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psn10</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2asi10</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2con11</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pkgs11</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2wgt11</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psy11</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psn11</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2asi11</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2con12</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pkgs12</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2wgt12</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psy12</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psn12</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2asi12</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2con13</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pkgs13</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2wgt13</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psy13</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2psn13</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2asi13</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pkgstot</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2wgttot</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2huq1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hut1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pq1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pt1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2ciw1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hm1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2cd1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2nmfc1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2class1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2huq2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hut2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pq2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pt2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2ciw2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hm2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2cd2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2nmfc2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2class2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2huq3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hut3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pq3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pt3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2ciw3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hm3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2cd3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2nmfc3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2class3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2huq4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hut4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pq4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pt4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2ciw4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hm4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2cd4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2nmfc4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2class4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2huq5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hut5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pq5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pt5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2ciw5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hm5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2cd5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2nmfc5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2class5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2huq6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hut6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pq6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pt6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2ciw6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hm6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2cd6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2nmfc6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2class6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2huq7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hut7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pq7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pt7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2ciw7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hm7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2cd7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2nmfc7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2class7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2huq8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hut8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pq8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pt8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2ciw8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hm8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2cd8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2nmfc8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2class8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2huq9</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hut9</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pq9</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pt9</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2ciw9</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hm9</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2cd9</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2nmfc9</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2class9</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2huq10</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hut10</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pq10</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pt10</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2ciw10</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hm10</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2cd10</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2nmfc10</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2class10</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2huq11</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hut11</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pq11</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pt11</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2ciw11</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hm11</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2cd11</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2nmfc11</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2class11</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2huq12</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hut12</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pq12</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pt12</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2ciw12</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hm12</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2cd12</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2nmfc12</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2class12</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2huq13</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hut13</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pq13</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pt13</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2ciw13</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hm13</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2cd13</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2nmfc13</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2class13</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2huq14</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hut14</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pq14</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pt14</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2ciw14</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hm14</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2cd14</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2nmfc14</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2class14</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2huq15</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hut15</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pq15</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pt15</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2ciw15</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2hm15</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2cd15</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2nmfc15</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2class15</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2huqtot</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2pqtot</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2ciwtot</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -2620,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H385"/>
+  <dimension ref="A1:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3212,1827 +2332,507 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B94" s="2"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B95" s="2"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B98" s="2"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B102" s="2"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B104" s="2"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B107" s="2"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B109" s="2"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B110" s="2"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B111" s="2"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B112" s="2"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B113" s="2"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B114" s="2"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B115" s="2"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B116" s="2"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B117" s="2"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B118" s="2"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B119" s="2"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B120" s="2"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B121" s="2"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B122" s="2"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B123" s="2"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B124" s="2"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B125" s="2"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B126" s="2"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B127" s="2"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B128" s="2"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B129" s="2"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B130" s="2"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B131" s="2"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B132" s="2"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B133" s="2"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B134" s="2"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B135" s="2"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B136" s="2"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B137" s="2"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B138" s="2"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B139" s="2"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B140" s="2"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B141" s="2"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B142" s="2"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B143" s="2"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B144" s="2"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B145" s="2"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B146" s="2"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B147" s="2"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B148" s="2"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B149" s="2"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B150" s="2"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B151" s="2"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B152" s="2"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B153" s="2"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B154" s="2"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B155" s="2"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B156" s="2"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B157" s="2"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B158" s="2"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B159" s="2"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B160" s="2"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B161" s="2"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B162" s="2"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B163" s="2"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B164" s="2"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B165" s="2"/>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B166" s="2"/>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B167" s="2"/>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B168" s="2"/>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B169" s="2"/>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B170" s="2"/>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B171" s="2"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B172" s="2"/>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B173" s="2"/>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B174" s="2"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B175" s="2"/>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B176" s="2"/>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B177" s="2"/>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B178" s="2"/>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B179" s="2"/>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B180" s="2"/>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B181" s="2"/>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B182" s="2"/>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B183" s="2"/>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B184" s="2"/>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B185" s="2"/>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B186" s="2"/>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B187" s="2"/>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B188" s="2"/>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B189" s="2"/>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B190" s="2"/>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B191" s="2"/>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B192" s="2"/>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B193" s="2"/>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B194" s="2"/>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B195" s="2"/>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B196" s="2"/>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B197" s="2"/>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B198" s="2"/>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B199" s="2"/>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B200" s="2"/>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B201" s="2"/>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B202" s="2"/>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B203" s="2"/>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B204" s="2"/>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B205" s="2"/>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B206" s="2"/>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B207" s="2"/>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B208" s="2"/>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B209" s="2"/>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B210" s="2"/>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B211" s="2"/>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B212" s="2"/>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B213" s="2"/>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B214" s="2"/>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B215" s="2"/>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B216" s="2"/>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B217" s="2"/>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B218" s="2"/>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B219" s="2"/>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B220" s="2"/>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B221" s="2"/>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B222" s="2"/>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B223" s="2"/>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B224" s="2"/>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B225" s="2"/>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B226" s="2"/>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B227" s="2"/>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B228" s="2"/>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B229" s="2"/>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B230" s="2"/>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B231" s="2"/>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B232" s="2"/>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B233" s="2"/>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B234" s="2"/>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B235" s="2"/>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B236" s="2"/>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B237" s="2"/>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B238" s="2"/>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B239" s="2"/>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B240" s="2"/>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B241" s="2"/>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B242" s="2"/>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B243" s="2"/>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B244" s="2"/>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B245" s="2"/>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B246" s="2"/>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B247" s="2"/>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B248" s="2"/>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B249" s="2"/>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B250" s="2"/>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B251" s="2"/>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B252" s="2"/>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B253" s="2"/>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B254" s="2"/>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B255" s="2"/>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B256" s="2"/>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B257" s="2"/>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B258" s="2"/>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B259" s="2"/>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B260" s="2"/>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B261" s="2"/>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B262" s="2"/>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B263" s="2"/>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B264" s="2"/>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B265" s="2"/>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B266" s="2"/>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B267" s="2"/>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B268" s="2"/>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B269" s="2"/>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B270" s="2"/>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B271" s="2"/>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B272" s="2"/>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B273" s="2"/>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B274" s="2"/>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B275" s="2"/>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B276" s="2"/>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B277" s="2"/>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B278" s="2"/>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B279" s="2"/>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B280" s="2"/>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B281" s="2"/>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B282" s="2"/>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B283" s="2"/>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B284" s="2"/>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B285" s="2"/>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B286" s="2"/>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B287" s="2"/>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B288" s="2"/>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B289" s="2"/>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B290" s="2"/>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B291" s="2"/>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B292" s="2"/>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B293" s="2"/>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B294" s="2"/>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B295" s="2"/>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B296" s="2"/>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B297" s="2"/>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B298" s="2"/>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B299" s="2"/>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B300" s="2"/>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B301" s="2"/>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B302" s="2"/>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B303" s="2"/>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B304" s="2"/>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B305" s="2"/>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B306" s="2"/>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B307" s="2"/>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B308" s="2"/>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B309" s="2"/>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B310" s="2"/>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B311" s="2"/>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B312" s="2"/>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B313" s="2"/>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B314" s="2"/>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B315" s="2"/>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B316" s="2"/>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B317" s="2"/>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B318" s="2"/>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B319" s="2"/>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B320" s="2"/>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B321" s="2"/>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B322" s="2"/>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B323" s="2"/>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B324" s="2"/>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B325" s="2"/>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B326" s="2"/>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B327" s="2"/>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B328" s="2"/>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B329" s="2"/>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B330" s="2"/>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B331" s="2"/>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B332" s="2"/>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B333" s="2"/>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B334" s="2"/>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B335" s="2"/>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B336" s="2"/>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B337" s="2"/>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B338" s="2"/>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B339" s="2"/>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B340" s="2"/>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B341" s="2"/>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B342" s="2"/>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B343" s="2"/>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B344" s="2"/>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B345" s="2"/>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B346" s="2"/>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B347" s="2"/>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B348" s="2"/>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B349" s="2"/>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B350" s="2"/>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B351" s="2"/>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B352" s="2"/>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B353" s="2"/>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B354" s="2"/>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B355" s="2"/>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B356" s="2"/>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B357" s="2"/>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B358" s="2"/>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B359" s="2"/>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B360" s="2"/>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B361" s="2"/>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B362" s="2"/>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B363" s="2"/>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B364" s="2"/>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B365" s="2"/>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B366" s="2"/>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B367" s="2"/>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B368" s="2"/>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B369" s="2"/>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B370" s="2"/>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B371" s="2"/>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B372" s="2"/>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B373" s="2"/>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B374" s="2"/>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B375" s="2"/>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B376" s="2"/>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B377" s="2"/>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B378" s="2"/>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B379" s="2"/>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B380" s="2"/>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B381" s="2"/>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B382" s="2"/>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B383" s="2"/>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B384" s="2"/>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B385" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:B258">

--- a/src/main/resources/config/relation.xlsx
+++ b/src/main/resources/config/relation.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="relation" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,782 +27,791 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="197">
   <si>
     <t>csv key</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf key</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageof</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>sffob</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>stadd</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>sftel</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>sttel</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>si</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>tn</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seal number(s)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>scac</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>terms1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>terms2</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pp</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>col</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>3p</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbol</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>con1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkgs1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>wgt1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>psy1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>psn1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>asi1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>con2</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkgs2</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>wgt2</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>psy2</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>psn2</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>asi2</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>con3</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkgs3</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>wgt3</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>psy3</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>psn3</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>asi3</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>con4</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkgs4</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>wgt4</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>psy4</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>psn4</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>asi4</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>con5</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkgs5</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>wgt5</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>psy5</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>psn5</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>asi5</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>con6</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkgs6</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>wgt6</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>psy6</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>psn6</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>asi6</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>con7</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkgs7</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>wgt7</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>psy7</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>psn7</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>asi7</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>con8</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkgs8</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>wgt8</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>psy8</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>psn8</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>asi8</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkgstot</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>wgttot</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>see#0</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>huq1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciw1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>hm1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>nmfc1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>class1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>huq2</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut2</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq2</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt2</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciw2</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>hm2</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd2</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>nmfc2</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>class2</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>huq3</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut3</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq3</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt3</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciw3</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>hm3</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd3</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>nmfc3</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>class3</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>huq4</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut4</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq4</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt4</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciw4</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>hm4</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd4</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>nmfc4</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>class4</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>huq5</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut5</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq5</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt5</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciw5</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>hm5</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd5</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>huq6</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut6</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq6</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt6</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciw6</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>hm6</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd6</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>huq7</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut7</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq7</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt7</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciw7</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>hm7</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd7</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>nmfc5</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>class5</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>huq8</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq8</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt8</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciw8</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>hm8</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd8</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>nmfc6</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>class6</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>huqtot</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pqtot</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciwtot</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>cod</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepaid</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>per</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>tlbs</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>tlbd</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>fcbs</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>fcbdpa</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>fcbdpi</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>property</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfcode</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>stcsz</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>stsid</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>stfob</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>boln</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ponum</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipFromCode</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipFromTel</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Company</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>stname</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipToName</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipToAddress</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipToCity</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipToState</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipToPostalCode</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ststate</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>stzip</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipToDayPhone</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipToTel</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO_Num</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOL_Num</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer Order Number</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>pbt</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaymentBillTo</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special Insturction</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carrier</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trailer number</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO_Num</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOL_Num</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>PKGS</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU_QTY</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>pdf key</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageof</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>sfname</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>sfadd</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>sfcsz</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>sfsid</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>sffob</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>stname</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>stadd</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>stcsz</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>stsid</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>sftel</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>sttel</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>stfob</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>boln</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bill Of Lading Number</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>3rd Party</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>3pname</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>3padd</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>3pcsz</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>si</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>tn</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trailer number</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>sn</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seal number(s)</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>scac</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCAC</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pro</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pro number</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>terms1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Freight Charge Terms</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>terms2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pp</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prepaid</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>col</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collect</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>3p</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>mbol</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ship From Name</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ship From Address</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ship From City/State/Zip</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ship From Tel</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ship From SID</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ship From FOB</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ship To Name And Location</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ship To Address</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ship To City/State/Zip</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ship To SID</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ship To Tel</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ship To FOB</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Charges Bill To Name And Location</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Charges Bill To Address</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Charges Bill To City/State/Zip</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Special Instructions</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carrier Name</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>con1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pkgs1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>wgt1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>psy1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>psn1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>asi1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>con2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pkgs2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>wgt2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>psy2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>psn2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>asi2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>con3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pkgs3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>wgt3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>psy3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>psn3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>asi3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>con4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pkgs4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>wgt4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>psy4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>psn4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>asi4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>con5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pkgs5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>wgt5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>psy5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>psn5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>asi5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>con6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pkgs6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>wgt6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>psy6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>psn6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>asi6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>con7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pkgs7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>wgt7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>psy7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>psn7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>asi7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>con8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pkgs8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>wgt8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>psy8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>psn8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>asi8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pkgstot</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>wgttot</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>see#0</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>huq1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>hut1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pt1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>ciw1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>hm1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>nmfc1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>class1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>huq2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>hut2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pt2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>ciw2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>hm2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>nmfc2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>class2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>huq3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>hut3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pt3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>ciw3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>hm3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>nmfc3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>class3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>huq4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>hut4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pt4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>ciw4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>hm4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>nmfc4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>class4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>huq5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>hut5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pt5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>ciw5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>hm5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>huq6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>hut6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pt6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>ciw6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>hm6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>huq7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>hut7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pt7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>ciw7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>hm7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>nmfc5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>class5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>huq8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>hut8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pq8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pt8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>ciw8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>hm8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd8</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>nmfc6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>class6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>huqtot</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>pqtot</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>ciwtot</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>cod</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>collect</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>prepaid</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>per</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>tlbs</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>tlbd</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>fcbs</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>fcbdpa</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>fcbdpi</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>property</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <t>HU_TYPE</t>
+  </si>
+  <si>
+    <t>PKG_QTY</t>
+  </si>
+  <si>
+    <t>PKG_TYPE</t>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discription</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>NMFC</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -960,12 +969,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -984,6 +987,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1172,7 +1182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1304,17 +1314,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="22"/>
       </left>
       <right style="thin">
@@ -1376,9 +1375,9 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1387,12 +1386,17 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1740,10 +1744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H165"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="B169" sqref="B169"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1758,7 +1762,7 @@
     <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1766,1079 +1770,1086 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+        <v>185</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="B47" s="2"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B49" s="2"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B50" s="2"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B51" s="2"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B53" s="2"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B55" s="2"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="B57" s="2"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B58" s="2"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B59" s="2"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B60" s="2"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="B61" s="2"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B62" s="2"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B63" s="2"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B66" s="2"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B67" s="2"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B68" s="2"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B69" s="2"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B70" s="2"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B71" s="2"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B72" s="2"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B73" s="2"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B74" s="2"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B75" s="2"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="B76" s="2"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="B77" s="2"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B78" s="2"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B79" s="2"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B83" s="2"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B84" s="2"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B85" s="2"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B86" s="2"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B88" s="2"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B90" s="2"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="B97" s="2"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="B98" s="2"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="B99" s="2"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="B100" s="2"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="B101" s="2"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="B102" s="2"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="B103" s="2"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="B105" s="2"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="B107" s="2"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="B108" s="2"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B109" s="2"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="B110" s="2"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="B111" s="2"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="B112" s="2"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="B113" s="2"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B114" s="2"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="B115" s="2"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="B121" s="2"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="B123" s="2"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="B125" s="2"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="B127" s="2"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="B128" s="2"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="B129" s="2"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="B130" s="2"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B131" s="2"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="B132" s="2"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B133" s="2"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="B134" s="2"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="B135" s="2"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="B136" s="2"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="B137" s="2"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="B138" s="2"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="B139" s="2"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="B140" s="2"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="B141" s="2"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="B142" s="2"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="B143" s="2"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="B144" s="2"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="B145" s="2"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="B146" s="2"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="B147" s="2"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="B148" s="2"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="B149" s="2"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="B150" s="2"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="B151" s="2"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="B152" s="2"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="B153" s="2"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="B154" s="2"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="B155" s="2"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="B156" s="2"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="B157" s="2"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="B158" s="2"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="B159" s="2"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="B160" s="2"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="B161" s="2"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="B162" s="2"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="B163" s="2"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="B164" s="2"/>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B165" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:B258">
     <sortCondition ref="A1"/>
   </sortState>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/config/relation.xlsx
+++ b/src/main/resources/config/relation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingwarLuo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="382">
   <si>
     <t>date</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -249,10 +249,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>pkgs8</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>wgt8</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -269,18 +265,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>pkgstot</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>wgttot</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>see#0</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>huq1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -633,26 +617,10 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ShipFromCode</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>stname</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ShipToName</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOL_Num</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO_Num</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Weight</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -665,10 +633,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>csv header</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>default value</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -677,22 +641,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Special Insturction</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trailer number</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seal number(s)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PKGS</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>HU_QTY</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -757,10 +705,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>sffob</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>sftel</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -785,640 +729,617 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>Ship To Name</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ship To Address</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ship To City/State/Zip</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ship To CID#</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ship To Tel</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ship To FOB</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargesBillTo.xlsx</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3pname</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3padd</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3psid</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charges Bill To Name</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charges Bill To Address</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charges Bill To City/State/Zip</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special Instructions</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bill of Lading Number(With Codebar)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trialer Name</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seal Number(s)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO number(With Codebar)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>unless marked otherwise)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>(freight charges are prepaid</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Bill of lading</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3rd Party</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collect</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepaid</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freight Charge Terms</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freight Charge Terms</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer Order Number(line 2)</t>
+  </si>
+  <si>
+    <t>Customer Order Number(line 3)</t>
+  </si>
+  <si>
+    <t>Customer Order Number(line 1)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PKGS(line 1)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEIGHT(line 1)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PALLET(line 1)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLIP(line 1)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDITIONAL SHIPPER INFO(line 1)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PKGS(line 2)</t>
+  </si>
+  <si>
+    <t>WEIGHT(line 2)</t>
+  </si>
+  <si>
+    <t>PALLET(line 2)</t>
+  </si>
+  <si>
+    <t>SLIP(line 2)</t>
+  </si>
+  <si>
+    <t>ADDITIONAL SHIPPER INFO(line 2)</t>
+  </si>
+  <si>
+    <t>PKGS(line 3)</t>
+  </si>
+  <si>
+    <t>WEIGHT(line 3)</t>
+  </si>
+  <si>
+    <t>PALLET(line 3)</t>
+  </si>
+  <si>
+    <t>SLIP(line 3)</t>
+  </si>
+  <si>
+    <t>ADDITIONAL SHIPPER INFO(line 3)</t>
+  </si>
+  <si>
+    <t>Customer Order Number(line 4)</t>
+  </si>
+  <si>
+    <t>PKGS(line 4)</t>
+  </si>
+  <si>
+    <t>WEIGHT(line 4)</t>
+  </si>
+  <si>
+    <t>PALLET(line 4)</t>
+  </si>
+  <si>
+    <t>SLIP(line 4)</t>
+  </si>
+  <si>
+    <t>ADDITIONAL SHIPPER INFO(line 4)</t>
+  </si>
+  <si>
+    <t>Customer Order Number(line 5)</t>
+  </si>
+  <si>
+    <t>PKGS(line 5)</t>
+  </si>
+  <si>
+    <t>WEIGHT(line 5)</t>
+  </si>
+  <si>
+    <t>PALLET(line 5)</t>
+  </si>
+  <si>
+    <t>SLIP(line 5)</t>
+  </si>
+  <si>
+    <t>ADDITIONAL SHIPPER INFO(line 5)</t>
+  </si>
+  <si>
+    <t>Customer Order Number(line 6)</t>
+  </si>
+  <si>
+    <t>PKGS(line 6)</t>
+  </si>
+  <si>
+    <t>WEIGHT(line 6)</t>
+  </si>
+  <si>
+    <t>PALLET(line 6)</t>
+  </si>
+  <si>
+    <t>SLIP(line 6)</t>
+  </si>
+  <si>
+    <t>ADDITIONAL SHIPPER INFO(line 6)</t>
+  </si>
+  <si>
+    <t>Customer Order Number(line 7)</t>
+  </si>
+  <si>
+    <t>PKGS(line 7)</t>
+  </si>
+  <si>
+    <t>WEIGHT(line 7)</t>
+  </si>
+  <si>
+    <t>PALLET(line 7)</t>
+  </si>
+  <si>
+    <t>SLIP(line 7)</t>
+  </si>
+  <si>
+    <t>ADDITIONAL SHIPPER INFO(line 7)</t>
+  </si>
+  <si>
+    <t>Customer Order Number(line 8)</t>
+  </si>
+  <si>
+    <t>PKGS(line 8)</t>
+  </si>
+  <si>
+    <t>WEIGHT(line 8)</t>
+  </si>
+  <si>
+    <t>PALLET(line 8)</t>
+  </si>
+  <si>
+    <t>SLIP(line 8)</t>
+  </si>
+  <si>
+    <t>ADDITIONAL SHIPPER INFO(line 8)</t>
+  </si>
+  <si>
+    <t>PKGS Total</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEIGHT Total</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Section 2(e) of NMFC Item 360</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANDLING UNIT QTY(line 1)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANDLING UNIT TYPE(line 1)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PACKAGE QTY(line 1)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PACKAGE TYPE(line 1)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEIGHT(line 1)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.M.(line 1)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMODITY DESCRIPTION(line 1)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTL ONLY NMFC#(line 1)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTL ONLY CLASS(line 1)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANDLING UNIT QTY(line 2)</t>
+  </si>
+  <si>
+    <t>HANDLING UNIT TYPE(line 2)</t>
+  </si>
+  <si>
+    <t>PACKAGE QTY(line 2)</t>
+  </si>
+  <si>
+    <t>PACKAGE TYPE(line 2)</t>
+  </si>
+  <si>
+    <t>H.M.(line 2)</t>
+  </si>
+  <si>
+    <t>COMMODITY DESCRIPTION(line 2)</t>
+  </si>
+  <si>
+    <t>LTL ONLY NMFC#(line 2)</t>
+  </si>
+  <si>
+    <t>LTL ONLY CLASS(line 2)</t>
+  </si>
+  <si>
+    <t>HANDLING UNIT QTY(line 3)</t>
+  </si>
+  <si>
+    <t>HANDLING UNIT TYPE(line 3)</t>
+  </si>
+  <si>
+    <t>PACKAGE QTY(line 3)</t>
+  </si>
+  <si>
+    <t>PACKAGE TYPE(line 3)</t>
+  </si>
+  <si>
+    <t>H.M.(line 3)</t>
+  </si>
+  <si>
+    <t>COMMODITY DESCRIPTION(line 3)</t>
+  </si>
+  <si>
+    <t>LTL ONLY NMFC#(line 3)</t>
+  </si>
+  <si>
+    <t>LTL ONLY CLASS(line 3)</t>
+  </si>
+  <si>
+    <t>HANDLING UNIT QTY(line 4)</t>
+  </si>
+  <si>
+    <t>HANDLING UNIT TYPE(line 4)</t>
+  </si>
+  <si>
+    <t>PACKAGE QTY(line 4)</t>
+  </si>
+  <si>
+    <t>PACKAGE TYPE(line 4)</t>
+  </si>
+  <si>
+    <t>H.M.(line 4)</t>
+  </si>
+  <si>
+    <t>COMMODITY DESCRIPTION(line 4)</t>
+  </si>
+  <si>
+    <t>LTL ONLY NMFC#(line 4)</t>
+  </si>
+  <si>
+    <t>LTL ONLY CLASS(line 4)</t>
+  </si>
+  <si>
+    <t>HANDLING UNIT QTY(line 5)</t>
+  </si>
+  <si>
+    <t>HANDLING UNIT TYPE(line 5)</t>
+  </si>
+  <si>
+    <t>PACKAGE QTY(line 5)</t>
+  </si>
+  <si>
+    <t>PACKAGE TYPE(line 5)</t>
+  </si>
+  <si>
+    <t>H.M.(line 5)</t>
+  </si>
+  <si>
+    <t>COMMODITY DESCRIPTION(line 5)</t>
+  </si>
+  <si>
+    <t>HANDLING UNIT QTY(line 6)</t>
+  </si>
+  <si>
+    <t>HANDLING UNIT TYPE(line 6)</t>
+  </si>
+  <si>
+    <t>PACKAGE QTY(line 6)</t>
+  </si>
+  <si>
+    <t>PACKAGE TYPE(line 6)</t>
+  </si>
+  <si>
+    <t>H.M.(line 6)</t>
+  </si>
+  <si>
+    <t>COMMODITY DESCRIPTION(line 6)</t>
+  </si>
+  <si>
+    <t>HANDLING UNIT QTY(line 7)</t>
+  </si>
+  <si>
+    <t>HANDLING UNIT TYPE(line 7)</t>
+  </si>
+  <si>
+    <t>PACKAGE QTY(line 7)</t>
+  </si>
+  <si>
+    <t>PACKAGE TYPE(line 7)</t>
+  </si>
+  <si>
+    <t>H.M.(line 7)</t>
+  </si>
+  <si>
+    <t>COMMODITY DESCRIPTION(line 7)</t>
+  </si>
+  <si>
+    <t>HANDLING UNIT TYPE(line 8)</t>
+  </si>
+  <si>
+    <t>PACKAGE TYPE(line 8)</t>
+  </si>
+  <si>
+    <t>LTL ONLY NMFC#(line 7)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTL ONLY CLASS(line 7)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.M.(line 8)</t>
+  </si>
+  <si>
+    <t>COMMODITY DESCRIPTION(line 8)</t>
+  </si>
+  <si>
+    <t>LTL ONLY NMFC#(line 8)</t>
+  </si>
+  <si>
+    <t>LTL ONLY CLASS(line 8)</t>
+  </si>
+  <si>
+    <t>HANDLING UNIT QTY(line 8)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANDLING UNIT QTY Total</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PACKAGE QTY(line 8)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PACKAGE QTY Total</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cod Amount</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collect</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepaid</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer check acceptable</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Property described above is received in good order, except as noted.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>relation filename</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>relation field</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shipfrom_Code</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>City/State/Zip</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>pbtcode</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargesBillTo.xlsx</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCAC.xlsx</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carrier Name</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carrier Name</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>scac</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCAC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCAC in SCAC.xlsx file</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3rd party bill to code in ChargesBillTo.xlsx file</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship from code in Ship From.xlsx file</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ponum</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO_Num</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3rd page</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phone_No</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ship From.xlsx</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ship From.xlsx</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>ShipFromTel</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ship To Name</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ship To Address</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ship To City/State/Zip</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ship To CID#</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ship To Tel</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ship To FOB</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShipToTel</t>
-  </si>
-  <si>
-    <t>ChargesBillTo.xlsx</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>3pname</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>3padd</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>3psid</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Charges Bill To Name</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Charges Bill To Address</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Charges Bill To City/State/Zip</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Special Instructions</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bill of Lading Number(With Codebar)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trialer Name</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seal Number(s)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO number(With Codebar)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>unless marked otherwise)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>(freight charges are prepaid</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Master Bill of lading</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>3rd Party</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collect</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prepaid</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Freight Charge Terms</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Freight Charge Terms</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Customer Order Number(line 2)</t>
-  </si>
-  <si>
-    <t>Customer Order Number(line 3)</t>
-  </si>
-  <si>
-    <t>Customer Order Number(line 1)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PKGS(line 1)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEIGHT(line 1)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PALLET(line 1)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLIP(line 1)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDITIONAL SHIPPER INFO(line 1)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PKGS(line 2)</t>
-  </si>
-  <si>
-    <t>WEIGHT(line 2)</t>
-  </si>
-  <si>
-    <t>PALLET(line 2)</t>
-  </si>
-  <si>
-    <t>SLIP(line 2)</t>
-  </si>
-  <si>
-    <t>ADDITIONAL SHIPPER INFO(line 2)</t>
-  </si>
-  <si>
-    <t>PKGS(line 3)</t>
-  </si>
-  <si>
-    <t>WEIGHT(line 3)</t>
-  </si>
-  <si>
-    <t>PALLET(line 3)</t>
-  </si>
-  <si>
-    <t>SLIP(line 3)</t>
-  </si>
-  <si>
-    <t>ADDITIONAL SHIPPER INFO(line 3)</t>
-  </si>
-  <si>
-    <t>Customer Order Number(line 4)</t>
-  </si>
-  <si>
-    <t>PKGS(line 4)</t>
-  </si>
-  <si>
-    <t>WEIGHT(line 4)</t>
-  </si>
-  <si>
-    <t>PALLET(line 4)</t>
-  </si>
-  <si>
-    <t>SLIP(line 4)</t>
-  </si>
-  <si>
-    <t>ADDITIONAL SHIPPER INFO(line 4)</t>
-  </si>
-  <si>
-    <t>Customer Order Number(line 5)</t>
-  </si>
-  <si>
-    <t>PKGS(line 5)</t>
-  </si>
-  <si>
-    <t>WEIGHT(line 5)</t>
-  </si>
-  <si>
-    <t>PALLET(line 5)</t>
-  </si>
-  <si>
-    <t>SLIP(line 5)</t>
-  </si>
-  <si>
-    <t>ADDITIONAL SHIPPER INFO(line 5)</t>
-  </si>
-  <si>
-    <t>Customer Order Number(line 6)</t>
-  </si>
-  <si>
-    <t>PKGS(line 6)</t>
-  </si>
-  <si>
-    <t>WEIGHT(line 6)</t>
-  </si>
-  <si>
-    <t>PALLET(line 6)</t>
-  </si>
-  <si>
-    <t>SLIP(line 6)</t>
-  </si>
-  <si>
-    <t>ADDITIONAL SHIPPER INFO(line 6)</t>
-  </si>
-  <si>
-    <t>Customer Order Number(line 7)</t>
-  </si>
-  <si>
-    <t>PKGS(line 7)</t>
-  </si>
-  <si>
-    <t>WEIGHT(line 7)</t>
-  </si>
-  <si>
-    <t>PALLET(line 7)</t>
-  </si>
-  <si>
-    <t>SLIP(line 7)</t>
-  </si>
-  <si>
-    <t>ADDITIONAL SHIPPER INFO(line 7)</t>
-  </si>
-  <si>
-    <t>Customer Order Number(line 8)</t>
-  </si>
-  <si>
-    <t>PKGS(line 8)</t>
-  </si>
-  <si>
-    <t>WEIGHT(line 8)</t>
-  </si>
-  <si>
-    <t>PALLET(line 8)</t>
-  </si>
-  <si>
-    <t>SLIP(line 8)</t>
-  </si>
-  <si>
-    <t>ADDITIONAL SHIPPER INFO(line 8)</t>
-  </si>
-  <si>
-    <t>PKGS Total</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEIGHT Total</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>See Section 2(e) of NMFC Item 360</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>HANDLING UNIT QTY(line 1)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>HANDLING UNIT TYPE(line 1)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PACKAGE QTY(line 1)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PACKAGE TYPE(line 1)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEIGHT(line 1)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>H.M.(line 1)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMODITY DESCRIPTION(line 1)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTL ONLY NMFC#(line 1)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTL ONLY CLASS(line 1)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>HANDLING UNIT QTY(line 2)</t>
-  </si>
-  <si>
-    <t>HANDLING UNIT TYPE(line 2)</t>
-  </si>
-  <si>
-    <t>PACKAGE QTY(line 2)</t>
-  </si>
-  <si>
-    <t>PACKAGE TYPE(line 2)</t>
-  </si>
-  <si>
-    <t>H.M.(line 2)</t>
-  </si>
-  <si>
-    <t>COMMODITY DESCRIPTION(line 2)</t>
-  </si>
-  <si>
-    <t>LTL ONLY NMFC#(line 2)</t>
-  </si>
-  <si>
-    <t>LTL ONLY CLASS(line 2)</t>
-  </si>
-  <si>
-    <t>HANDLING UNIT QTY(line 3)</t>
-  </si>
-  <si>
-    <t>HANDLING UNIT TYPE(line 3)</t>
-  </si>
-  <si>
-    <t>PACKAGE QTY(line 3)</t>
-  </si>
-  <si>
-    <t>PACKAGE TYPE(line 3)</t>
-  </si>
-  <si>
-    <t>H.M.(line 3)</t>
-  </si>
-  <si>
-    <t>COMMODITY DESCRIPTION(line 3)</t>
-  </si>
-  <si>
-    <t>LTL ONLY NMFC#(line 3)</t>
-  </si>
-  <si>
-    <t>LTL ONLY CLASS(line 3)</t>
-  </si>
-  <si>
-    <t>HANDLING UNIT QTY(line 4)</t>
-  </si>
-  <si>
-    <t>HANDLING UNIT TYPE(line 4)</t>
-  </si>
-  <si>
-    <t>PACKAGE QTY(line 4)</t>
-  </si>
-  <si>
-    <t>PACKAGE TYPE(line 4)</t>
-  </si>
-  <si>
-    <t>H.M.(line 4)</t>
-  </si>
-  <si>
-    <t>COMMODITY DESCRIPTION(line 4)</t>
-  </si>
-  <si>
-    <t>LTL ONLY NMFC#(line 4)</t>
-  </si>
-  <si>
-    <t>LTL ONLY CLASS(line 4)</t>
-  </si>
-  <si>
-    <t>HANDLING UNIT QTY(line 5)</t>
-  </si>
-  <si>
-    <t>HANDLING UNIT TYPE(line 5)</t>
-  </si>
-  <si>
-    <t>PACKAGE QTY(line 5)</t>
-  </si>
-  <si>
-    <t>PACKAGE TYPE(line 5)</t>
-  </si>
-  <si>
-    <t>H.M.(line 5)</t>
-  </si>
-  <si>
-    <t>COMMODITY DESCRIPTION(line 5)</t>
-  </si>
-  <si>
-    <t>HANDLING UNIT QTY(line 6)</t>
-  </si>
-  <si>
-    <t>HANDLING UNIT TYPE(line 6)</t>
-  </si>
-  <si>
-    <t>PACKAGE QTY(line 6)</t>
-  </si>
-  <si>
-    <t>PACKAGE TYPE(line 6)</t>
-  </si>
-  <si>
-    <t>H.M.(line 6)</t>
-  </si>
-  <si>
-    <t>COMMODITY DESCRIPTION(line 6)</t>
-  </si>
-  <si>
-    <t>HANDLING UNIT QTY(line 7)</t>
-  </si>
-  <si>
-    <t>HANDLING UNIT TYPE(line 7)</t>
-  </si>
-  <si>
-    <t>PACKAGE QTY(line 7)</t>
-  </si>
-  <si>
-    <t>PACKAGE TYPE(line 7)</t>
-  </si>
-  <si>
-    <t>H.M.(line 7)</t>
-  </si>
-  <si>
-    <t>COMMODITY DESCRIPTION(line 7)</t>
-  </si>
-  <si>
-    <t>HANDLING UNIT TYPE(line 8)</t>
-  </si>
-  <si>
-    <t>PACKAGE TYPE(line 8)</t>
-  </si>
-  <si>
-    <t>LTL ONLY NMFC#(line 7)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTL ONLY CLASS(line 7)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>H.M.(line 8)</t>
-  </si>
-  <si>
-    <t>COMMODITY DESCRIPTION(line 8)</t>
-  </si>
-  <si>
-    <t>LTL ONLY NMFC#(line 8)</t>
-  </si>
-  <si>
-    <t>LTL ONLY CLASS(line 8)</t>
-  </si>
-  <si>
-    <t>HANDLING UNIT QTY(line 8)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>HANDLING UNIT QTY Total</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PACKAGE QTY(line 8)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PACKAGE QTY Total</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cod Amount</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collect</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>prepaid</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Customer check acceptable</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Per</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Property described above is received in good order, except as noted.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>relation filename</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>relation field</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shipfrom_Code</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Address</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>City/State/Zip</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>3padd</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>3psid</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>3pname</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>pbtcode</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PaymentBillTo</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargesBillTo.xlsx</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>3pcode</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCAC.xlsx</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carrier Name</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carrier Name</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>scac</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carrier</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCAC</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCAC in SCAC.xlsx file</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>3rd party bill to code in ChargesBillTo.xlsx file</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ship from code in Ship From.xlsx file</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ponum</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PO_Num</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>3rd page</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>CON</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contact Person</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1459,6 +1380,117 @@
          2.2.1.2 若relation filename无值，则向pdf模板写入从csv文件读取的值
       2.2.2 若csv header从csv文件没读取到值，则查看default value是否有值，default value有值就写入pdf模板，无值就不写</t>
     </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>sffob</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>City/State/Zip</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipFromFOB</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipToAddress</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Company,ShipToName</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipToCity,ShipToState,ShipToPostalCode</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipToDayPhone</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipToTel</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipToFOB</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaymentBillTo</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special Insturction</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trailer number</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seal number(s)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carrier</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipFromCode</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOL_No</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer Order Number</t>
+  </si>
+  <si>
+    <t>see#0</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkgstot</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>wgttot</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkgs8</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PKGS</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>csv header</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discription</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -2071,10 +2103,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2425,16 +2457,16 @@
   <dimension ref="A1:J169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.21875" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" customWidth="1"/>
     <col min="5" max="5" width="20.88671875" customWidth="1"/>
     <col min="6" max="6" width="19.21875" customWidth="1"/>
     <col min="7" max="7" width="48.21875" customWidth="1"/>
@@ -2444,37 +2476,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="A1" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>161</v>
+        <v>380</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2482,16 +2514,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2499,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="5">
@@ -2508,147 +2540,153 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="7" t="s">
-        <v>153</v>
+        <v>371</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F6" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>178</v>
+        <v>350</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>191</v>
+        <v>352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>184</v>
+        <v>354</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>155</v>
+        <v>361</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2656,44 +2694,50 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2701,50 +2745,52 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>198</v>
+        <v>364</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>365</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>355</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -2752,21 +2798,21 @@
     </row>
     <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="F19" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -2774,21 +2820,21 @@
     </row>
     <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -2796,21 +2842,21 @@
     </row>
     <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -2821,33 +2867,33 @@
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>164</v>
+        <v>367</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>156</v>
+        <v>373</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -2858,16 +2904,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>165</v>
+        <v>368</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2875,54 +2921,54 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>166</v>
+        <v>369</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -2933,16 +2979,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2950,16 +2996,16 @@
         <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2967,16 +3013,16 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2984,14 +3030,14 @@
         <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2999,14 +3045,14 @@
         <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3014,16 +3060,16 @@
         <v>12</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3031,31 +3077,31 @@
         <v>13</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3063,16 +3109,16 @@
         <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3080,16 +3126,16 @@
         <v>15</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>167</v>
+        <v>379</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3097,16 +3143,16 @@
         <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3114,16 +3160,16 @@
         <v>17</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3131,16 +3177,16 @@
         <v>18</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3148,16 +3194,16 @@
         <v>19</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>156</v>
+        <v>373</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3165,14 +3211,14 @@
         <v>20</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3180,14 +3226,14 @@
         <v>21</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3195,14 +3241,14 @@
         <v>22</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3210,16 +3256,16 @@
         <v>23</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3227,16 +3273,16 @@
         <v>24</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3244,14 +3290,14 @@
         <v>25</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3259,14 +3305,14 @@
         <v>26</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3274,14 +3320,14 @@
         <v>27</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3289,14 +3335,14 @@
         <v>28</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3304,16 +3350,16 @@
         <v>29</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3321,16 +3367,16 @@
         <v>30</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3338,14 +3384,14 @@
         <v>31</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3353,14 +3399,14 @@
         <v>32</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3368,14 +3414,14 @@
         <v>33</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3383,14 +3429,14 @@
         <v>34</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3398,16 +3444,16 @@
         <v>35</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3415,16 +3461,16 @@
         <v>36</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3432,14 +3478,14 @@
         <v>37</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3447,14 +3493,14 @@
         <v>38</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3462,14 +3508,14 @@
         <v>39</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3477,14 +3523,14 @@
         <v>40</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3492,16 +3538,16 @@
         <v>41</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3509,16 +3555,16 @@
         <v>42</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3526,14 +3572,14 @@
         <v>43</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3541,14 +3587,14 @@
         <v>44</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3556,14 +3602,14 @@
         <v>45</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3571,14 +3617,14 @@
         <v>46</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3586,16 +3632,16 @@
         <v>47</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3603,16 +3649,16 @@
         <v>48</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3620,14 +3666,14 @@
         <v>49</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3635,14 +3681,14 @@
         <v>50</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3650,14 +3696,14 @@
         <v>51</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3665,14 +3711,14 @@
         <v>52</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3680,16 +3726,16 @@
         <v>53</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3697,16 +3743,16 @@
         <v>54</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3714,14 +3760,14 @@
         <v>55</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3729,135 +3775,135 @@
         <v>56</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>62</v>
+        <v>376</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
       <c r="G84" s="14" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>63</v>
+        <v>377</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
       <c r="G85" s="14" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>64</v>
+        <v>375</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -3865,1181 +3911,1181 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -5049,10 +5095,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -5062,10 +5108,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -5075,10 +5121,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -5088,10 +5134,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -5101,14 +5147,14 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
